--- a/doc/素材.xlsx
+++ b/doc/素材.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\tcgsupport\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7693C7C-425A-4FE4-9BB3-1517D9DE5AEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081C9713-A62B-4D6A-9812-2F6E3BB90C32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{D59D4CF0-D61F-48ED-977D-3D75E5782607}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{D59D4CF0-D61F-48ED-977D-3D75E5782607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <t>北海道</t>
   </si>
@@ -166,6 +167,147 @@
   </si>
   <si>
     <t>沖縄県</t>
+  </si>
+  <si>
+    <t>hokkaido</t>
+  </si>
+  <si>
+    <t>aomori</t>
+  </si>
+  <si>
+    <t>iwate</t>
+  </si>
+  <si>
+    <t>miyagi</t>
+  </si>
+  <si>
+    <t>akita</t>
+  </si>
+  <si>
+    <t>yamagata</t>
+  </si>
+  <si>
+    <t>fukushima</t>
+  </si>
+  <si>
+    <t>ibaraki</t>
+  </si>
+  <si>
+    <t>tochigi</t>
+  </si>
+  <si>
+    <t>gunma</t>
+  </si>
+  <si>
+    <t>saitama</t>
+  </si>
+  <si>
+    <t>chiba</t>
+  </si>
+  <si>
+    <t>tokyo</t>
+  </si>
+  <si>
+    <t>kanagawa</t>
+  </si>
+  <si>
+    <t>niigata</t>
+  </si>
+  <si>
+    <t>toyama</t>
+  </si>
+  <si>
+    <t>ishikawa</t>
+  </si>
+  <si>
+    <t>fukui</t>
+  </si>
+  <si>
+    <t>yamanashi</t>
+  </si>
+  <si>
+    <t>nagano</t>
+  </si>
+  <si>
+    <t>gifu</t>
+  </si>
+  <si>
+    <t>shizuoka</t>
+  </si>
+  <si>
+    <t>aichi</t>
+  </si>
+  <si>
+    <t>mie</t>
+  </si>
+  <si>
+    <t>shiga</t>
+  </si>
+  <si>
+    <t>kyoto</t>
+  </si>
+  <si>
+    <t>osaka</t>
+  </si>
+  <si>
+    <t>hyogo</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>wakayama</t>
+  </si>
+  <si>
+    <t>tottori</t>
+  </si>
+  <si>
+    <t>shimane</t>
+  </si>
+  <si>
+    <t>okayama</t>
+  </si>
+  <si>
+    <t>hiroshima</t>
+  </si>
+  <si>
+    <t>yamaguchi</t>
+  </si>
+  <si>
+    <t>tokushima</t>
+  </si>
+  <si>
+    <t>kagawa</t>
+  </si>
+  <si>
+    <t>ehime</t>
+  </si>
+  <si>
+    <t>kochi</t>
+  </si>
+  <si>
+    <t>fukuoka</t>
+  </si>
+  <si>
+    <t>saga</t>
+  </si>
+  <si>
+    <t>nagasaki</t>
+  </si>
+  <si>
+    <t>kumamoto</t>
+  </si>
+  <si>
+    <t>oita</t>
+  </si>
+  <si>
+    <t>miyazaki</t>
+  </si>
+  <si>
+    <t>kagoshima</t>
+  </si>
+  <si>
+    <t>okinawa</t>
   </si>
 </sst>
 </file>
@@ -531,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A49DDF7-FB9A-464C-88C5-77A084FD2155}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1106,4 +1248,726 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9F7C86-BFD1-4E70-A4AB-A5209AC0DF8C}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="str">
+        <f>UPPER(C1)&amp;"("&amp;B1&amp;","""&amp;A1&amp;"""),"</f>
+        <v>HOKKAIDO(0,"北海道"),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D47" si="0">UPPER(C2)&amp;"("&amp;B2&amp;","""&amp;A2&amp;"""),"</f>
+        <v>AOMORI(1,"青森県"),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>IWATE(2,"岩手県"),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>MIYAGI(3,"宮城県"),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>AKITA(4,"秋田県"),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>YAMAGATA(5,"山形県"),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>FUKUSHIMA(6,"福島県"),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>IBARAKI(7,"茨城県"),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>TOCHIGI(8,"栃木県"),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>GUNMA(9,"群馬県"),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>SAITAMA(10,"埼玉県"),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>CHIBA(11,"千葉県"),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>TOKYO(12,"東京都"),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>KANAGAWA(13,"神奈川県"),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>NIIGATA(14,"新潟県"),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>TOYAMA(15,"富山県"),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ISHIKAWA(16,"石川県"),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>FUKUI(17,"福井県"),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>YAMANASHI(18,"山梨県"),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>NAGANO(19,"長野県"),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>GIFU(20,"岐阜県"),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>SHIZUOKA(21,"静岡県"),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>AICHI(22,"愛知県"),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>MIE(23,"三重県"),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>SHIGA(24,"滋賀県"),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>KYOTO(25,"京都府"),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>OSAKA(26,"大阪府"),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>HYOGO(27,"兵庫県"),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>NARA(28,"奈良県"),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>WAKAYAMA(29,"和歌山県"),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>TOTTORI(30,"鳥取県"),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>SHIMANE(31,"島根県"),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>OKAYAMA(32,"岡山県"),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>HIROSHIMA(33,"広島県"),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>YAMAGUCHI(34,"山口県"),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>TOKUSHIMA(35,"徳島県"),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>KAGAWA(36,"香川県"),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>EHIME(37,"愛媛県"),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>KOCHI(38,"高知県"),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>FUKUOKA(39,"福岡県"),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>SAGA(40,"佐賀県"),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>NAGASAKI(41,"長崎県"),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>KUMAMOTO(42,"熊本県"),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>OITA(43,"大分県"),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>MIYAZAKI(44,"宮崎県"),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>KAGOSHIMA(45,"鹿児島県"),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>OKINAWA(46,"沖縄県"),</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>